--- a/data/alert.xlsx
+++ b/data/alert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>Attended</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -623,6 +623,161 @@
       </c>
       <c r="G6" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>217552</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>emergency</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-06-30T12:05:59.403Z</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Emergency button pressed</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>898126</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>assistance</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-06-30T14:03:20.439Z</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Help required in bathroom</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>109290</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>emergency</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-06-30T14:03:23.807Z</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Emergency button pressed</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6458</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>assistance</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-06-30T14:13:00.902Z</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Help needed for a short walk</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>631808</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>emergency</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-06-30T14:13:05.528Z</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Emergency button pressed</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
   </sheetData>
